--- a/medicine/Pharmacie/Moyse_Charas/Moyse_Charas.xlsx
+++ b/medicine/Pharmacie/Moyse_Charas/Moyse_Charas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moyse Charas (ou Moïse) est un pharmacien français, né à Uzès le 2 avril 1619, et mort à Paris le 17 janvier 1698 (à 78 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études classiques, puis des études d'apothicaire, il ouvre une officine à Orange, qu'il quitte pour venir à Paris vers 1646.
 En 1667, il réalise la première fabrication publique de la thériaque, contrepoison très en vogue au XVIIe siècle. Il publie l'année suivante la Thériaque d'Andromachus, connue aussi sous le titre Histoire naturelle des animaux, des plantes et des minéraux qui entrent dans la composition de la thériaque d'Andromachus, dispensée et achevée publiquement à Paris.
@@ -548,13 +562,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thériaque d'Andromachus, dispensée et achevée publiquement à Paris par Moyse Charas, avec les réformations et les observations de l'auteur tant sur l'élection et sur la préparation, que sur le dernier mélange de tous les ingrédients de cette grande composition. Titre alternatif : Histoire naturelle des animaux, des plantes et des minéraux qui entrent dans la composition de la thériaque d'Andromachus, dispensée et achevée publiquement à Paris, par Moyse Charas, avec les réformations et les observations de l'auteur (1668) Texte en ligne
 Nouvelles expériences sur la vipère, où l'on verra une description exacte de toutes ses parties, la source de son venin, ses divers effets et les remèdes exquis que les artistes peuvent tirer de la vipère, tant pour la guérison de ses morsures que pour celle de plusieurs autres maladies (1669) Texte en ligne
 Pharmacopée royale galénique et chimique (1676) Texte en ligne
 Pharmacopée royale galénique et chimique (seconde édition revue et corrigée, 2 volumes, 1681) Texte en ligne 1 2
-Opera (3 volumes, 1684) Texte en ligne 1. Pharmacopea regia galenica 2. Pharmacopea regia chymica 3. Historiam naturalem et ici : [1]
+Opera (3 volumes, 1684) Texte en ligne 1. Pharmacopea regia galenica 2. Pharmacopea regia chymica 3. Historiam naturalem et ici : 
 Opera : Tome I : Pharmacopoea Regia Galenica, Tome II : Pharmacopoea Rgia Chymica, Tome III : Tractatus de Theriaca &amp; tractatus de Vipera., Genève, Jean Louis du Four, 1684 (lire en ligne)
 Thériaque d'Andromacus : avec une description particulière des plantes, des animaux et des minéraux employez à cette grande composition (nouvelle édition revue et augmentée, 1685) Texte en ligne
 Traité abrégé des Eaux minerales de France : des Eaux minérales en général &amp; de la Manière d'en faire l'Analyse. Bruyset, Lyon 1753 (digital)
@@ -586,7 +602,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Moyse (Mouïse) Charas marié à Marguerite Fauchière,
 Moyse Charas a été marié en premières noces, par contrat du 24 août 1642, avec Suzanne Félix (née à Orange, le 12 mars 1624-décédée à Paris en mai 1665) dont il eut sept enfants nés à Orange entre 1643 et 1658, et quatre nés à Paris, puis en secondes noces avec Madeleine Hadancourt dont il eut neuf enfants entre 1669 et 1678. Tous les enfants nés à Orange étaient morts en bas âge, avant le départ de Charas pour Paris, en 1659. Seuls trois enfants du second mariage étaient encore vivants à la mort de leur père, Madeleine, François et Suzanne.
